--- a/biology/Médecine/Centre_intégré_de_santé_et_de_services_sociaux/Centre_intégré_de_santé_et_de_services_sociaux.xlsx
+++ b/biology/Médecine/Centre_intégré_de_santé_et_de_services_sociaux/Centre_intégré_de_santé_et_de_services_sociaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Centre_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un centre intégré de santé et de services sociaux (CISSS) est, au Québec, un organisme public chargé par le ministère de la Santé et des Services sociaux de prodiguer les soins et les services sociaux dans chacune des régions sociosanitaires de la province. Si celui-ci est situé dans une région sociosanitaire où une université offre un programme pré-doctoral en médecine ou exploite un institut universitaire du domaine social, il peut obtenir la dénomination de centre intégré universitaire de santé et de services sociaux (CIUSSS)[1]. 
-Certaines régions sociosanitaires sont desservies par plus d'un centre intégré de santé et de services sociaux[1] alors que d'autres, bénéficiant d'un statut spécial, ne sont desservies par aucun centre intégré de santé et de services sociaux[2]. 
+Un centre intégré de santé et de services sociaux (CISSS) est, au Québec, un organisme public chargé par le ministère de la Santé et des Services sociaux de prodiguer les soins et les services sociaux dans chacune des régions sociosanitaires de la province. Si celui-ci est situé dans une région sociosanitaire où une université offre un programme pré-doctoral en médecine ou exploite un institut universitaire du domaine social, il peut obtenir la dénomination de centre intégré universitaire de santé et de services sociaux (CIUSSS). 
+Certaines régions sociosanitaires sont desservies par plus d'un centre intégré de santé et de services sociaux alors que d'autres, bénéficiant d'un statut spécial, ne sont desservies par aucun centre intégré de santé et de services sociaux. 
 Les centres travaillent étroitement avec les 4 universités abritant des facultés de médecine au Québec, soit l'Université Laval, l'Université McGill, l'Université de Montréal et l'Université de Sherbrooke. En conformité avec les règlements de la Loi canadienne sur la santé, les services offerts par les différents composants du système sont financés par des fonds publics. Par conséquent, ces services sont offerts gratuitement aux résidents du Québec qui sont détenteurs d'une carte d'assurance-maladie valide.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Centre_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le territoire du Québec a été divisé à partir de 1971 en un certain nombre de régions socio-sanitaires (RSS) et autant de Conseils régionaux de la santé et des services sociaux (CRSSS). Il y avait à l'origine douze régions socio-sanitaires[3]. En 2021 on en compte 18[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le territoire du Québec a été divisé à partir de 1971 en un certain nombre de régions socio-sanitaires (RSS) et autant de Conseils régionaux de la santé et des services sociaux (CRSSS). Il y avait à l'origine douze régions socio-sanitaires. En 2021 on en compte 18.
 L'Assemblée nationale du Québec a adopté, le 7 février 2015, la Loi modifiant l’organisation et la gouvernance du réseau de la santé et des services sociaux notamment par l’abolition des agences régionales (RLRQ, chapitre O-7.2) (LMRSSS). Depuis sa mise en application le 1er avril 2015, les centres de santé et services sociaux (CSSS) sont remplacés par les CISSS et CIUSSS.
-Il est prévu que la mise en place de Santé Québec provoque l'abolition des CIUSSS et des CISSS. La création de cette agence est proposée par le ministre Christian Dubé, dans le projet de loi qu'il dépose le 29 mars 2023[5].
+Il est prévu que la mise en place de Santé Québec provoque l'abolition des CIUSSS et des CISSS. La création de cette agence est proposée par le ministre Christian Dubé, dans le projet de loi qu'il dépose le 29 mars 2023.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Centre_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La LMRSSS a redéfini les rôles et responsabilités des centres intégrés de santé et de services sociaux. Les principaux sont les suivants[6] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La LMRSSS a redéfini les rôles et responsabilités des centres intégrés de santé et de services sociaux. Les principaux sont les suivants : 
 Planifier, coordonner, organiser et offrir à la population de son territoire l’ensemble des services sociaux et de santé, selon les orientations et les directives ministérielles
 Garantir une planification régionale des ressources humaines
 Réaliser le suivi et la reddition de comptes auprès du ministère de la Santé et des Services sociaux en fonction de ses attentes
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Centre_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les CISSS et CIUSSS regroupent et intègrent notamment cinq types de services[7],[8]. :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les CISSS et CIUSSS regroupent et intègrent notamment cinq types de services,. :
 Centre hospitalier (CH) ou centres hospitaliers de soins généraux et spécialisés (CHSGS).
 Centre d’hébergement et de soins de longue durée (CHSLD)
 Centre local de services communautaires (CLSC)
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centre_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Centre_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,9 +636,11 @@
           <t>Régions sociosanitaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le ministère de la Santé et des Services sociaux sépare la province en 18 régions sociosanitaires[4] qui ressemblent, mais ne sont pas identiques aux régions administratives québécoises :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le ministère de la Santé et des Services sociaux sépare la province en 18 régions sociosanitaires qui ressemblent, mais ne sont pas identiques aux régions administratives québécoises :
 Bas-Saint-Laurent (01)
 Saguenay–Lac-Saint-Jean (02)
 Capitale-Nationale (03)
@@ -648,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Centre_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+          <t>Centre_intégré_de_santé_et_de_services_sociaux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,11 +686,48 @@
           <t>Liste des centres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les 34 établissements de santé, dont les 22 CISSS et CIUSSS, sont regroupés au sein de quatre Réseaux universitaires intégrés de santé (RUIS). Les RUIS sont organisés autour de trois centres universitaires francophones (Université de Montréal, Université Laval et Université de Sherbrooke) et d'un centre universitaire anglophone (Université McGill) qui a tout de même l'obligation d'offrir des services en français à la population. La mission des RUIS est entre autres de favoriser la concertation et la complémentarité des services au sein des établissements auxquels ils sont rattachés[9].  
-Centres intégrés
-Il existe 13 centres intégrés (CISSS) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 34 établissements de santé, dont les 22 CISSS et CIUSSS, sont regroupés au sein de quatre Réseaux universitaires intégrés de santé (RUIS). Les RUIS sont organisés autour de trois centres universitaires francophones (Université de Montréal, Université Laval et Université de Sherbrooke) et d'un centre universitaire anglophone (Université McGill) qui a tout de même l'obligation d'offrir des services en français à la population. La mission des RUIS est entre autres de favoriser la concertation et la complémentarité des services au sein des établissements auxquels ils sont rattachés.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_intégré_de_santé_et_de_services_sociaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des centres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Centres intégrés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Il existe 13 centres intégrés (CISSS) :
 Centre intégré de santé et de services sociaux des Îles
 Centre intégré de santé et de services sociaux des Laurentides
 Centre intégré de santé et de services sociaux de l'Outaouais
@@ -683,9 +740,43 @@
 Centre intégré de santé et de services sociaux de la Gaspésie
 Centre intégré de santé et de services sociaux de la Montérégie-Centre
 Centre intégré de santé et de services sociaux de la Montérégie-Est
-Centre intégré de santé et de services sociaux de la Montérégie-Ouest
-Centres intégrés universitaires
-Il existe 9 centres intégrés universitaires (CIUSSS). Ces centres fournissent divers services en santé et travaillent en collaboration avec les facultés de médecine des universités québécoises afin de répondre aux divers besoins de la région où ils sont situés :
+Centre intégré de santé et de services sociaux de la Montérégie-Ouest</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_intégré_de_santé_et_de_services_sociaux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des centres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Centres intégrés universitaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Il existe 9 centres intégrés universitaires (CIUSSS). Ces centres fournissent divers services en santé et travaillent en collaboration avec les facultés de médecine des universités québécoises afin de répondre aux divers besoins de la région où ils sont situés :
 Centre intégré universitaire de santé et de services sociaux du Saguenay–Lac-Saint-Jean
 Centre intégré universitaire de santé et de services sociaux de la Capitale-Nationale
 Centre intégré universitaire de santé et de services sociaux de l'Estrie
@@ -694,9 +785,43 @@
 Centre intégré universitaire de santé et de services sociaux du Centre-Ouest-de-l’Île-de-Montréal
 Centre intégré universitaire de santé et de services sociaux du Centre-Sud-de-l’Île-de-Montréal
 Centre intégré universitaire de santé et de services sociaux du Nord-de-l’Île-de-Montréal
-Centre intégré universitaire de santé et de services sociaux de l’Est-de-l’Île-de-Montréal
-Hors centre intégré (établissements non fusionnés)
-Situés à Montréal et Québec, il existe 7 établissements dits « non fusionnés ». Ils sont tous de taille très importante et possèdent une expertise régionale ou nationale :
+Centre intégré universitaire de santé et de services sociaux de l’Est-de-l’Île-de-Montréal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_intégré_de_santé_et_de_services_sociaux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_int%C3%A9gr%C3%A9_de_sant%C3%A9_et_de_services_sociaux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des centres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hors centre intégré (établissements non fusionnés)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Situés à Montréal et Québec, il existe 7 établissements dits « non fusionnés ». Ils sont tous de taille très importante et possèdent une expertise régionale ou nationale :
 Centre hospitalier de l'Université de Montréal (CHUM)
 Centre hospitalier universitaire Sainte-Justine (CHU-Sainte-Justine)
 Centre universitaire de santé McGill (CUSM)
